--- a/scratch/model variables.xlsx
+++ b/scratch/model variables.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mak/Desktop/job hunt/interview prep/LAC/field-goal-probability-model/scratch/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB2D9DB5-BCA6-5448-A40D-5214B6765B00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE690363-6177-9B4A-ACC1-FE5808FEC633}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="680" yWindow="740" windowWidth="28040" windowHeight="17260" xr2:uid="{DD343180-D87B-E046-8738-AEA642343124}"/>
+    <workbookView xWindow="5860" yWindow="-19700" windowWidth="28040" windowHeight="17260" xr2:uid="{DD343180-D87B-E046-8738-AEA642343124}"/>
   </bookViews>
   <sheets>
     <sheet name="ideal variables" sheetId="1" r:id="rId1"/>
     <sheet name="must have" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="83">
   <si>
     <t>Category</t>
   </si>
@@ -199,6 +201,153 @@
   </si>
   <si>
     <t>Distance calculation</t>
+  </si>
+  <si>
+    <t>variable</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>fg_made</t>
+  </si>
+  <si>
+    <t>indoor</t>
+  </si>
+  <si>
+    <t>precip</t>
+  </si>
+  <si>
+    <t>night</t>
+  </si>
+  <si>
+    <t>high_leverage</t>
+  </si>
+  <si>
+    <t>cold</t>
+  </si>
+  <si>
+    <t>hot</t>
+  </si>
+  <si>
+    <t>humid</t>
+  </si>
+  <si>
+    <t>moderate_wind</t>
+  </si>
+  <si>
+    <t>high wind</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>AUC</t>
+  </si>
+  <si>
+    <t>Brier ↓</t>
+  </si>
+  <si>
+    <t>LogLoss ↓</t>
+  </si>
+  <si>
+    <t>Sens ↑</t>
+  </si>
+  <si>
+    <t>Spec ↑</t>
+  </si>
+  <si>
+    <t>Balanced Acc ↑</t>
+  </si>
+  <si>
+    <r>
+      <t>Logistic (SMOTE)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (0.55, no interactions)</t>
+    </r>
+  </si>
+  <si>
+    <t>Solid balance</t>
+  </si>
+  <si>
+    <r>
+      <t>XGBoost (weighted)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (0.90, no interactions)</t>
+    </r>
+  </si>
+  <si>
+    <t>Overpredicts makes</t>
+  </si>
+  <si>
+    <r>
+      <t>Logistic (SMOTE)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (0.55, w/ interactions)</t>
+    </r>
+  </si>
+  <si>
+    <t>Nearly identical to non-interaction version</t>
+  </si>
+  <si>
+    <r>
+      <t>XGBoost (weighted)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (0.85, w/ interactions)</t>
+    </r>
+  </si>
+  <si>
+    <t>Even worse balance</t>
+  </si>
+  <si>
+    <r>
+      <t>Logistic (SMOTE)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (0.5, w/ interactions)</t>
+    </r>
+  </si>
+  <si>
+    <t>Best sensitivity/spec balance</t>
   </si>
 </sst>
 </file>
@@ -666,7 +815,7 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -916,7 +1065,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1017,4 +1166,292 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8356F595-CB6D-D34F-A218-F22A1AC210CA}">
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2">
+        <v>84.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3">
+        <v>27.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6">
+        <v>20.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8">
+        <v>21.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11">
+        <v>44.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12">
+        <v>5.7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AE0EAF8-449D-F04F-803F-C923308255BA}">
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="36.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2">
+        <v>0.77100000000000002</v>
+      </c>
+      <c r="C2">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="D2">
+        <v>0.58599999999999997</v>
+      </c>
+      <c r="E2">
+        <v>0.60599999999999998</v>
+      </c>
+      <c r="F2">
+        <v>0.80700000000000005</v>
+      </c>
+      <c r="G2">
+        <v>0.70599999999999996</v>
+      </c>
+      <c r="H2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3">
+        <v>0.76700000000000002</v>
+      </c>
+      <c r="C3">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="D3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E3">
+        <v>0.96299999999999997</v>
+      </c>
+      <c r="F3">
+        <v>0.159</v>
+      </c>
+      <c r="G3">
+        <v>0.56100000000000005</v>
+      </c>
+      <c r="H3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4">
+        <v>0.77100000000000002</v>
+      </c>
+      <c r="C4">
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="D4">
+        <v>0.58299999999999996</v>
+      </c>
+      <c r="E4">
+        <v>0.61199999999999999</v>
+      </c>
+      <c r="F4">
+        <v>0.79300000000000004</v>
+      </c>
+      <c r="G4">
+        <v>0.70199999999999996</v>
+      </c>
+      <c r="H4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5">
+        <v>0.76500000000000001</v>
+      </c>
+      <c r="C5">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="D5">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E5">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="F5">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="G5">
+        <v>0.52300000000000002</v>
+      </c>
+      <c r="H5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6">
+        <v>0.77100000000000002</v>
+      </c>
+      <c r="C6">
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="D6">
+        <v>0.58299999999999996</v>
+      </c>
+      <c r="E6">
+        <v>0.66600000000000004</v>
+      </c>
+      <c r="F6">
+        <v>0.73599999999999999</v>
+      </c>
+      <c r="G6">
+        <v>0.70099999999999996</v>
+      </c>
+      <c r="H6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>